--- a/Results/angles.xlsx
+++ b/Results/angles.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mab/Documents/GitHub/bryozoa/magnifica/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A6E51B-B3CE-7148-AEB9-CCDB3A1386A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CE2D92-0320-C549-93A7-4D140BFC5577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1820" windowWidth="27240" windowHeight="16340" activeTab="1" xr2:uid="{0E288C34-E3C8-E646-8E3D-A02DDDF28843}"/>
+    <workbookView xWindow="9140" yWindow="760" windowWidth="27240" windowHeight="16340" activeTab="1" xr2:uid="{0E288C34-E3C8-E646-8E3D-A02DDDF28843}"/>
   </bookViews>
   <sheets>
     <sheet name="angles_compare_gs" sheetId="1" r:id="rId1"/>
-    <sheet name="angles_compare_global_g" sheetId="2" r:id="rId2"/>
+    <sheet name="angles_compare_gmax" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -460,7 +460,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -531,7 +531,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -549,7 +549,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>7.9535530000000003</v>
+        <v>93.365390000000005</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -557,7 +557,7 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>3.790778</v>
+        <v>67.626909999999995</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -565,7 +565,7 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>5.831842</v>
+        <v>118.622</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -573,7 +573,7 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>20.706510000000002</v>
+        <v>125.7294</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -581,7 +581,7 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>17.583780000000001</v>
+        <v>122.2833</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -589,7 +589,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>22.453520000000001</v>
+        <v>127.2186</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -597,7 +597,7 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>10.81873</v>
+        <v>52.375360000000001</v>
       </c>
     </row>
   </sheetData>
